--- a/data/trans_camb/P12B1_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_3_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,17 +632,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-82,28</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>58,44</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,12 +652,27 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-17,97</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-40,86</t>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
         </is>
       </c>
     </row>
@@ -644,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>0,0; 9,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 21,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,12 +705,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-84,75; 71,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-87,48; 10,81</t>
+          <t>0,0; 14,91</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,11</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,08</t>
         </is>
       </c>
     </row>
@@ -677,12 +738,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-82,28%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -697,12 +758,27 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-35,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-79,8%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -720,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -739,6 +815,21 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,22</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>51,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,81</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,32</t>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
         </is>
       </c>
     </row>
@@ -795,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-45,79; 55,5</t>
+          <t>0,0; 13,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 58,04</t>
+          <t>0,0; 12,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,12 +921,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,05; 61,99</t>
+          <t>0,0; 11,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 68,86</t>
+          <t>0,0; 7,96</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,91</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 7,91</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,49</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>71,84%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>139,43%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>178,21%</t>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -918,27 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-15,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-18,29</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,94</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,48</t>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
         </is>
       </c>
     </row>
@@ -956,27 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-47,5; 17,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-52,3; 9,8</t>
+          <t>-7,86; -0,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-36,81; 17,44</t>
+          <t>-7,86; -0,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,18; 22,62</t>
+          <t>-5,48; 2,87</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 0,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,49; 1,68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,4; 1,6</t>
         </is>
       </c>
     </row>
@@ -999,22 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-56,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-67,54%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-59,81%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-45,02%</t>
+          <t>-33,69%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-51,27%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-38,68%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-47,84; 43,49</t>
+          <t>-2,8; 5,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-51,99; 44,79</t>
+          <t>-1,4; 9,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 49,75</t>
+          <t>-2,59; 3,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,54; 43,13</t>
+          <t>-4,98; 5,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 32,42</t>
+          <t>-4,91; 6,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 32,23</t>
+          <t>-4,8; 5,04</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 3,99</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 5,48</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 3,64</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,57%</t>
+          <t>87,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>218,54%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>25,87%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>81,59%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-71,41; 314,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-73,53; 255,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,58; 178,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 150,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,85; 97,66</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 91,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-75,54; 641,05</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-57,5; 715,38</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-16,49</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>26,43</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-16,32</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,87</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-54,61; 22,77</t>
+          <t>-9,92; 4,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 62,18</t>
+          <t>-6,41; 10,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-36,9; 36,17</t>
+          <t>-4,89; 13,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-54,61; 26,33</t>
+          <t>-11,44; 10,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 28,14</t>
+          <t>-11,49; 10,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 36,31</t>
+          <t>-12,24; 10,73</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-7,64; 4,8</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,41; 8,64</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 9,13</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-45,07%</t>
+          <t>-38,72%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>72,23%</t>
+          <t>46,87%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-4,17%</t>
+          <t>66,97%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-22,41%</t>
+          <t>-3,53%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-8,5%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>-1,63%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-19,31%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>19,08%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>28,99%</t>
         </is>
       </c>
     </row>
@@ -1344,27 +1660,42 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 513,74</t>
+          <t>-84,74; 703,25</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-43,83; 84,4</t>
+          <t>-78,87; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-64,18; 53,14</t>
+          <t>-84,29; 513,02</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,26; 72,16</t>
+          <t>-84,6; 504,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-32,14; 105,69</t>
+          <t>-84,86; 504,71</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-76,25; 199,99</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-57,53; 330,03</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-58,13; 312,54</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>16,87</t>
+          <t>-9,28</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>16,87</t>
+          <t>-6,93</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-9,31</t>
+          <t>-7,64</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>14,84</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-3,41</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-4,31</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5,39</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,78</t>
+          <t>-24,75; 7,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,13</t>
+          <t>-22,89; 10,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 10,29</t>
+          <t>-25,27; 7,06</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 14,16</t>
+          <t>-12,42; 13,49</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 15,84</t>
+          <t>-13,64; 9,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 18,26</t>
+          <t>-2,0; 44,94</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; 7,2</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-14,44; 5,54</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-6,97; 25,04</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>-46,44%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>-34,66%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-9,83%</t>
+          <t>-38,24%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>-25,13%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>161,73%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-24,4%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-30,89%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>38,61%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,05</t>
+          <t>-89,32; 122,05</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,21</t>
+          <t>-81,6; 143,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-38,64; 11,88</t>
+          <t>-86,74; 98,26</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 16,05</t>
+          <t>-82,85; 499,66</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 19,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 23,84</t>
+          <t>-46,47; 1246,35</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-69,64; 84,42</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-74,04; 74,85</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-45,35; 316,22</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1,92</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 23,89</t>
+          <t>-3,58; 2,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 21,38</t>
+          <t>-2,07; 4,09</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 21,44</t>
+          <t>-2,7; 3,12</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 18,98</t>
+          <t>-2,97; 1,79</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 12,09</t>
+          <t>-2,88; 1,94</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 13,34</t>
+          <t>-0,2; 11,71</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 1,45</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 2,2</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 6,1</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-10,66%</t>
+          <t>-16,73%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>23,96%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-1,63%</t>
+          <t>-17,26%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-7,3%</t>
+          <t>-10,07%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-4,2%</t>
+          <t>106,0%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-16,98%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>54,0%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-52,66; 64,83</t>
+          <t>-69,82; 109,97</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-53,34; 57,23</t>
+          <t>-41,57; 202,37</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 44,05</t>
+          <t>-57,26; 151,58</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 37,26</t>
+          <t>-63,68; 102,87</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-36,31; 25,62</t>
+          <t>-59,6; 93,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 28,61</t>
+          <t>-12,91; 459,98</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-53,72; 52,94</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-38,27; 85,04</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-18,41; 193,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
